--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Plan/PM_Plan_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Plan/PM_Plan_Ver1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A0C1C-6381-40B7-91C3-6ED85681D8C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B83FA5F-5996-415E-A385-A8121422AD70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Tổng quan" sheetId="9" r:id="rId5"/>
     <sheet name="Ngân sách" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1049,6 +1049,18 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,18 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4285,18 +4285,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
       <c r="M1" s="40"/>
@@ -4315,16 +4315,16 @@
       <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="40"/>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
@@ -4343,24 +4343,24 @@
       <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="43"/>
       <c r="L3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="70"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="45"/>
       <c r="P3" s="40"/>
       <c r="Q3" s="40"/>
@@ -4375,24 +4375,24 @@
       <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="43"/>
       <c r="L4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="70"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="45"/>
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
@@ -4407,24 +4407,24 @@
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="43"/>
       <c r="L5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="70"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="45"/>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
@@ -4439,24 +4439,24 @@
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="43"/>
       <c r="L6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="70"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="45"/>
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
@@ -4471,24 +4471,24 @@
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="43"/>
       <c r="L7" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="75">
         <v>43508</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="45"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
@@ -4503,16 +4503,16 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="40"/>
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
@@ -4531,16 +4531,16 @@
       <c r="Z8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="40"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
@@ -4559,16 +4559,16 @@
       <c r="Z9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="40"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
@@ -4587,23 +4587,23 @@
       <c r="Z10" s="40"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -4617,16 +4617,16 @@
       <c r="Z11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="43"/>
       <c r="L12" s="48" t="s">
         <v>64</v>
@@ -4653,16 +4653,16 @@
       <c r="Z12" s="40"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="43"/>
       <c r="L13" s="49" t="s">
         <v>68</v>
@@ -4689,16 +4689,16 @@
       <c r="Z13" s="40"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="43"/>
       <c r="L14" s="53"/>
       <c r="M14" s="54"/>
@@ -4717,16 +4717,16 @@
       <c r="Z14" s="40"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="43"/>
       <c r="L15" s="53"/>
       <c r="M15" s="54"/>
@@ -4745,16 +4745,16 @@
       <c r="Z15" s="40"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="43"/>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -4773,16 +4773,16 @@
       <c r="Z16" s="40"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="43"/>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -4801,16 +4801,16 @@
       <c r="Z17" s="40"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="43"/>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -4829,16 +4829,16 @@
       <c r="Z18" s="40"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="43"/>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -4857,16 +4857,16 @@
       <c r="Z19" s="40"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="43"/>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -32346,12 +32346,12 @@
   <dimension ref="A2:T56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="76"/>
+    <col min="1" max="1" width="11" style="63"/>
     <col min="2" max="2" width="38.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
     <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
@@ -32368,7 +32368,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="65" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -32397,10 +32397,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="79">
+      <c r="A4" s="66">
         <v>1</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="64" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -32427,10 +32427,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="79">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -32457,10 +32457,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="79">
+      <c r="A6" s="66">
         <v>3</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="64" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -32487,10 +32487,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="79">
+      <c r="A7" s="66">
         <v>4</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="64" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -32517,10 +32517,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="79">
+      <c r="A8" s="66">
         <v>5</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -32547,10 +32547,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="79">
+      <c r="A9" s="66">
         <v>6</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -32577,10 +32577,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="79">
+      <c r="A10" s="66">
         <v>7</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="64" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -32607,10 +32607,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="79">
+      <c r="A11" s="66">
         <v>8</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="64" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -32637,10 +32637,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="79">
+      <c r="A12" s="66">
         <v>9</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="64" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="32" t="s">
@@ -32667,10 +32667,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="79">
+      <c r="A13" s="66">
         <v>10</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -32697,10 +32697,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="79">
+      <c r="A14" s="66">
         <v>11</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="64" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -32727,10 +32727,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
-      <c r="A15" s="79">
+      <c r="A15" s="66">
         <v>12</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="64" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -32757,10 +32757,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="79">
+      <c r="A16" s="66">
         <v>13</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="64" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -32787,10 +32787,10 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1">
-      <c r="A17" s="79">
+      <c r="A17" s="66">
         <v>14</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="64" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -32817,10 +32817,10 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1">
-      <c r="A18" s="79">
+      <c r="A18" s="66">
         <v>15</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="64" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -32847,10 +32847,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1">
-      <c r="A19" s="79">
+      <c r="A19" s="66">
         <v>16</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="64" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -32877,10 +32877,10 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="79">
+      <c r="A20" s="66">
         <v>17</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -32907,10 +32907,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A21" s="79">
+      <c r="A21" s="66">
         <v>18</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="64" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -32948,10 +32948,10 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A22" s="79">
+      <c r="A22" s="66">
         <v>19</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -32989,10 +32989,10 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A23" s="79">
+      <c r="A23" s="66">
         <v>20</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="64" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="33" t="s">
@@ -33030,10 +33030,10 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A24" s="79">
+      <c r="A24" s="66">
         <v>21</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -33071,10 +33071,10 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A25" s="79">
+      <c r="A25" s="66">
         <v>22</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="64" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -33112,10 +33112,10 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A26" s="79">
+      <c r="A26" s="66">
         <v>23</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="64" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="20" t="s">
@@ -33153,10 +33153,10 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A27" s="79">
+      <c r="A27" s="66">
         <v>24</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="64" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -33194,10 +33194,10 @@
       <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1">
-      <c r="A28" s="79">
+      <c r="A28" s="66">
         <v>25</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -33235,10 +33235,10 @@
       <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1">
-      <c r="A29" s="79">
+      <c r="A29" s="66">
         <v>26</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="20" t="s">
